--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/05,25/14,05,25 ПОКОМ ЗПФ НОВОРОССИЙСК и СОЧИ на погрузку 18,05/Новороссийск пок зпф (исправ.).xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/05,25/14,05,25 ПОКОМ ЗПФ НОВОРОССИЙСК и СОЧИ на погрузку 18,05/Новороссийск пок зпф (исправ.).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\14,05,25 ПОКОМ ЗПФ НОВОРОССИЙСК и СОЧИ на погрузку 18,05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\05,25\14,05,25 ПОКОМ ЗПФ НОВОРОССИЙСК и СОЧИ на погрузку 18,05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C65C75-1BDB-4538-8CEB-AC6D5C370BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813415B0-94C3-4746-98E5-529618E1235D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$Z$73</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -808,11 +816,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="TDSheet"/>
     </sheetNames>
@@ -2020,10 +2025,10 @@
   <dimension ref="A1:AT498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,17 +2038,17 @@
     <col min="3" max="3" width="5" style="9" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="0.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="10" width="0.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
     <col min="13" max="13" width="7" style="31" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="17" width="5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="6" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="45.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="45.7109375" customWidth="1"/>
     <col min="20" max="20" width="7.140625" customWidth="1"/>
     <col min="21" max="21" width="6" style="9" customWidth="1"/>
     <col min="22" max="22" width="6.85546875" style="13" customWidth="1"/>
@@ -8768,7 +8773,7 @@
         <v>14</v>
       </c>
       <c r="L70" s="40">
-        <f t="shared" ref="L70:L72" si="31">N70/C70*$L$1</f>
+        <f t="shared" ref="L70:L71" si="31">N70/C70*$L$1</f>
         <v>450</v>
       </c>
       <c r="M70" s="29">
